--- a/Control de Reparto/Control de Reparto/bin/Debug/Control de reparto.xlsx
+++ b/Control de Reparto/Control de Reparto/bin/Debug/Control de reparto.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="90" windowWidth="17715" windowHeight="12330"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>No.</t>
   </si>
@@ -49,12 +49,6 @@
     <t>Datos cheque</t>
   </si>
   <si>
-    <t>Empresa/Sucursal:</t>
-  </si>
-  <si>
-    <t>Conductor:</t>
-  </si>
-  <si>
     <t>Ruta:</t>
   </si>
   <si>
@@ -97,38 +91,46 @@
     <t>Entrega de documentos</t>
   </si>
   <si>
-    <t>Entregué</t>
-  </si>
-  <si>
-    <t>Recibí</t>
-  </si>
-  <si>
     <t>Recibí Cobranza</t>
   </si>
   <si>
     <t>Recepción de documentos</t>
   </si>
   <si>
-    <t>Nombre y firma del Cajero(a)</t>
-  </si>
-  <si>
     <t>Nombre y Firma del Chofer</t>
   </si>
   <si>
-    <t>Bancos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01 Banorte    02 Bancrecer    03 Bital    04 Banrural    05 Banamex    06 Serfin    07 BBV Bancomer    08 Inverlat Scotianbank    09 Santander </t>
-  </si>
-  <si>
     <t>Saldo</t>
+  </si>
+  <si>
+    <t>Nombre y firma de quien entrega</t>
+  </si>
+  <si>
+    <t>Nombre y firma de quien recibe</t>
+  </si>
+  <si>
+    <t>Entregué
+{{PERSONAENTREGA}}</t>
+  </si>
+  <si>
+    <t>Conductor: {{CHOFER}}</t>
+  </si>
+  <si>
+    <t>Empresa/Sucursal: {{SUCURSAL}}</t>
+  </si>
+  <si>
+    <t>Recibí
+{{CHOFER}}</t>
+  </si>
+  <si>
+    <t>Folio: {{FOLIO}}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -292,7 +294,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -307,9 +309,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -322,81 +321,80 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -475,6 +473,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -509,6 +508,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -684,14 +684,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:F8"/>
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
@@ -700,46 +700,48 @@
     <col min="7" max="9" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="36.42578125" customWidth="1"/>
+    <col min="12" max="12" width="35.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
       <c r="D1" s="20"/>
       <c r="E1" s="20"/>
       <c r="F1" s="20"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="G1" s="7"/>
+      <c r="H1" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" s="7"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="36" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B2" s="22"/>
       <c r="C2" s="22"/>
       <c r="D2" s="22"/>
       <c r="E2" s="22"/>
       <c r="F2" s="22"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-    </row>
-    <row r="3" spans="1:12" ht="7.5" customHeight="1">
+      <c r="G2" s="9"/>
+      <c r="H2" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="9"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="33"/>
+    </row>
+    <row r="3" spans="1:12" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -753,9 +755,9 @@
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B4" s="24"/>
       <c r="C4" s="24"/>
@@ -769,7 +771,7 @@
       <c r="K4" s="24"/>
       <c r="L4" s="27"/>
     </row>
-    <row r="5" spans="1:12" ht="7.5" customHeight="1">
+    <row r="5" spans="1:12" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -777,13 +779,13 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
-      <c r="H5" s="9"/>
+      <c r="H5" s="8"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="25" t="s">
         <v>0</v>
       </c>
@@ -807,7 +809,7 @@
       <c r="K6" s="25"/>
       <c r="L6" s="25"/>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="25"/>
       <c r="B7" s="25"/>
       <c r="C7" s="25"/>
@@ -821,7 +823,7 @@
         <v>5</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>7</v>
@@ -833,39 +835,39 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="37" customFormat="1">
-      <c r="A8" s="14"/>
-      <c r="B8" s="35"/>
-      <c r="C8" s="36" t="s">
+    <row r="8" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="12"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+    </row>
+    <row r="9" spans="1:12" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+    </row>
+    <row r="10" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="16" t="s">
         <v>14</v>
-      </c>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="35"/>
-      <c r="J8" s="35"/>
-      <c r="K8" s="35"/>
-      <c r="L8" s="35"/>
-    </row>
-    <row r="9" spans="1:12" ht="7.5" customHeight="1">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-    </row>
-    <row r="10" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A10" s="16" t="s">
-        <v>16</v>
       </c>
       <c r="B10" s="17"/>
       <c r="C10" s="17"/>
@@ -879,7 +881,7 @@
       <c r="K10" s="17"/>
       <c r="L10" s="18"/>
     </row>
-    <row r="11" spans="1:12" ht="18.75" customHeight="1">
+    <row r="11" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="19"/>
       <c r="B11" s="20"/>
       <c r="C11" s="20"/>
@@ -893,7 +895,7 @@
       <c r="K11" s="20"/>
       <c r="L11" s="21"/>
     </row>
-    <row r="12" spans="1:12" ht="7.5" customHeight="1">
+    <row r="12" spans="1:12" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -907,29 +909,29 @@
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
     </row>
-    <row r="13" spans="1:12" ht="13.5" customHeight="1">
+    <row r="13" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="20" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B13" s="20"/>
       <c r="C13" s="20"/>
       <c r="D13" s="20"/>
       <c r="E13" s="23" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F13" s="23"/>
       <c r="G13" s="23"/>
-      <c r="H13" s="9"/>
+      <c r="H13" s="8"/>
       <c r="I13" s="23" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J13" s="23"/>
       <c r="K13" s="23"/>
-      <c r="L13" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" hidden="1">
+      <c r="L13" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -943,7 +945,7 @@
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
     </row>
-    <row r="15" spans="1:12" ht="4.5" hidden="1" customHeight="1">
+    <row r="15" spans="1:12" ht="4.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -957,7 +959,7 @@
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
     </row>
-    <row r="16" spans="1:12" hidden="1">
+    <row r="16" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -971,7 +973,7 @@
       <c r="K16" s="5"/>
       <c r="L16" s="5"/>
     </row>
-    <row r="17" spans="1:12" hidden="1">
+    <row r="17" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -985,29 +987,29 @@
       <c r="K17" s="5"/>
       <c r="L17" s="5"/>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="23" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B18" s="23"/>
       <c r="C18" s="23"/>
       <c r="D18" s="23"/>
       <c r="E18" s="23" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F18" s="23"/>
       <c r="G18" s="23"/>
-      <c r="H18" s="9"/>
+      <c r="H18" s="8"/>
       <c r="I18" s="23" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J18" s="23"/>
       <c r="K18" s="23"/>
-      <c r="L18" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="L18" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -1021,125 +1023,121 @@
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
     </row>
-    <row r="20" spans="1:12">
-      <c r="A20" s="15" t="s">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="31"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="K20" s="15"/>
-      <c r="L20" s="15"/>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="A21" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21" s="34"/>
-      <c r="C21" s="34"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="F21" s="34"/>
-      <c r="G21" s="34"/>
-      <c r="H21" s="34"/>
-      <c r="I21" s="34"/>
-      <c r="J21" s="34" t="s">
+      <c r="K20" s="31"/>
+      <c r="L20" s="31"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="30"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="F21" s="30"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="30"/>
+      <c r="J21" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="K21" s="30"/>
+      <c r="L21" s="30"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="30"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="30"/>
+      <c r="J22" s="30"/>
+      <c r="K22" s="30"/>
+      <c r="L22" s="30"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="28" t="s">
         <v>28</v>
-      </c>
-      <c r="K21" s="34"/>
-      <c r="L21" s="34"/>
-    </row>
-    <row r="22" spans="1:12">
-      <c r="A22" s="34"/>
-      <c r="B22" s="34"/>
-      <c r="C22" s="34"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="34"/>
-      <c r="G22" s="34"/>
-      <c r="H22" s="34"/>
-      <c r="I22" s="34"/>
-      <c r="J22" s="34"/>
-      <c r="K22" s="34"/>
-      <c r="L22" s="34"/>
-    </row>
-    <row r="23" spans="1:12">
-      <c r="A23" s="28" t="s">
-        <v>30</v>
       </c>
       <c r="B23" s="28"/>
       <c r="C23" s="28"/>
       <c r="D23" s="28"/>
       <c r="E23" s="28" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F23" s="28"/>
       <c r="G23" s="28"/>
       <c r="H23" s="28"/>
       <c r="I23" s="28"/>
       <c r="J23" s="28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K23" s="28"/>
       <c r="L23" s="28"/>
     </row>
-    <row r="24" spans="1:12" ht="7.5" customHeight="1">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
-      <c r="L24" s="6"/>
-    </row>
-    <row r="25" spans="1:12">
-      <c r="A25" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="B25" s="32"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="32"/>
-      <c r="H25" s="32"/>
-      <c r="I25" s="32"/>
-      <c r="J25" s="32"/>
-      <c r="K25" s="32"/>
-      <c r="L25" s="33"/>
-    </row>
-    <row r="26" spans="1:12">
-      <c r="A26" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="B26" s="23"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="23"/>
-      <c r="I26" s="23"/>
-      <c r="J26" s="23"/>
-      <c r="K26" s="23"/>
-      <c r="L26" s="30"/>
-    </row>
-    <row r="27" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
@@ -1153,7 +1151,7 @@
       <c r="K27" s="5"/>
       <c r="L27" s="5"/>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="5"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -1167,7 +1165,7 @@
       <c r="K28" s="5"/>
       <c r="L28" s="5"/>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="5"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -1181,7 +1179,7 @@
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="5"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -1195,7 +1193,7 @@
       <c r="K30" s="5"/>
       <c r="L30" s="5"/>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="5"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -1209,7 +1207,7 @@
       <c r="K31" s="5"/>
       <c r="L31" s="5"/>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="5"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
@@ -1223,7 +1221,7 @@
       <c r="K32" s="5"/>
       <c r="L32" s="5"/>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="5"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
@@ -1237,7 +1235,7 @@
       <c r="K33" s="5"/>
       <c r="L33" s="5"/>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="5"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
@@ -1251,7 +1249,7 @@
       <c r="K34" s="5"/>
       <c r="L34" s="5"/>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="5"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
@@ -1265,7 +1263,7 @@
       <c r="K35" s="5"/>
       <c r="L35" s="5"/>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="5"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
@@ -1279,53 +1277,9 @@
       <c r="K36" s="5"/>
       <c r="L36" s="5"/>
     </row>
-    <row r="37" spans="1:12">
-      <c r="A37" s="5"/>
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="5"/>
-      <c r="J37" s="5"/>
-      <c r="K37" s="5"/>
-      <c r="L37" s="5"/>
-    </row>
-    <row r="38" spans="1:12">
-      <c r="A38" s="5"/>
-      <c r="B38" s="5"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
-      <c r="I38" s="5"/>
-      <c r="J38" s="5"/>
-      <c r="K38" s="5"/>
-      <c r="L38" s="5"/>
-    </row>
-    <row r="39" spans="1:12">
-      <c r="A39" s="5"/>
-      <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
-      <c r="I39" s="5"/>
-      <c r="J39" s="5"/>
-      <c r="K39" s="5"/>
-      <c r="L39" s="5"/>
-    </row>
   </sheetData>
-  <mergeCells count="28">
+  <mergeCells count="24">
     <mergeCell ref="J23:L23"/>
-    <mergeCell ref="A26:L26"/>
-    <mergeCell ref="A25:L25"/>
     <mergeCell ref="I18:K18"/>
     <mergeCell ref="I13:K13"/>
     <mergeCell ref="A21:D22"/>
@@ -1343,8 +1297,6 @@
     <mergeCell ref="A10:L11"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F2"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="J2:L2"/>
     <mergeCell ref="J6:L6"/>
     <mergeCell ref="C6:F7"/>
     <mergeCell ref="G6:I6"/>

--- a/Control de Reparto/Control de Reparto/bin/Debug/Control de reparto.xlsx
+++ b/Control de Reparto/Control de Reparto/bin/Debug/Control de reparto.xlsx
@@ -46,9 +46,6 @@
     <t>Cheque</t>
   </si>
   <si>
-    <t>Datos cheque</t>
-  </si>
-  <si>
     <t>Ruta:</t>
   </si>
   <si>
@@ -124,6 +121,9 @@
   </si>
   <si>
     <t>Folio: {{FOLIO}}</t>
+  </si>
+  <si>
+    <t>Observaciones</t>
   </si>
 </sst>
 </file>
@@ -326,63 +326,63 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -688,7 +688,7 @@
   <dimension ref="A1:L36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -704,42 +704,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
+      <c r="A1" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
       <c r="G1" s="7"/>
-      <c r="H1" s="33" t="s">
-        <v>31</v>
+      <c r="H1" s="16" t="s">
+        <v>30</v>
       </c>
       <c r="I1" s="7"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="36" t="s">
-        <v>34</v>
+      <c r="J1" s="17"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="19" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="32" t="s">
-        <v>11</v>
-      </c>
       <c r="I2" s="9"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="33"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="16"/>
     </row>
     <row r="3" spans="1:12" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
@@ -756,20 +756,20 @@
       <c r="L3" s="6"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="27"/>
+      <c r="A4" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="36"/>
     </row>
     <row r="5" spans="1:12" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
@@ -786,36 +786,36 @@
       <c r="L5" s="1"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25" t="s">
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25" t="s">
+      <c r="H6" s="33"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="K6" s="25"/>
-      <c r="L6" s="25"/>
+      <c r="K6" s="33"/>
+      <c r="L6" s="33"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="25"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
+      <c r="A7" s="33"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
       <c r="G7" s="2" t="s">
         <v>4</v>
       </c>
@@ -823,7 +823,7 @@
         <v>5</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>7</v>
@@ -832,18 +832,18 @@
         <v>8</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="12"/>
       <c r="B8" s="13"/>
-      <c r="C8" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
+      <c r="C8" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
       <c r="G8" s="12"/>
       <c r="H8" s="13"/>
       <c r="I8" s="13"/>
@@ -866,34 +866,34 @@
       <c r="L9" s="10"/>
     </row>
     <row r="10" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="18"/>
+      <c r="A10" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="29"/>
     </row>
     <row r="11" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="19"/>
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="20"/>
-      <c r="L11" s="21"/>
+      <c r="A11" s="30"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="31"/>
     </row>
     <row r="12" spans="1:12" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
@@ -910,25 +910,25 @@
       <c r="L12" s="4"/>
     </row>
     <row r="13" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
+      <c r="A13" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
       <c r="H13" s="8"/>
-      <c r="I13" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="J13" s="23"/>
-      <c r="K13" s="23"/>
+      <c r="I13" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
       <c r="L13" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
@@ -988,25 +988,25 @@
       <c r="L17" s="5"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="23"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
+      <c r="A18" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
       <c r="H18" s="8"/>
-      <c r="I18" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="J18" s="23"/>
-      <c r="K18" s="23"/>
+      <c r="I18" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
       <c r="L18" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -1024,76 +1024,76 @@
       <c r="L19" s="5"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="31" t="s">
+      <c r="A20" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="24"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="K20" s="24"/>
+      <c r="L20" s="24"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="31"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="31" t="s">
+      <c r="K21" s="23"/>
+      <c r="L21" s="23"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="23"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="23"/>
+      <c r="L22" s="23"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="K20" s="31"/>
-      <c r="L20" s="31"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="B21" s="30"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="F21" s="30"/>
-      <c r="G21" s="30"/>
-      <c r="H21" s="30"/>
-      <c r="I21" s="30"/>
-      <c r="J21" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="K21" s="30"/>
-      <c r="L21" s="30"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="30"/>
-      <c r="B22" s="30"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="30"/>
-      <c r="H22" s="30"/>
-      <c r="I22" s="30"/>
-      <c r="J22" s="30"/>
-      <c r="K22" s="30"/>
-      <c r="L22" s="30"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="28" t="s">
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="28"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="K23" s="28"/>
-      <c r="L23" s="28"/>
+      <c r="K23" s="20"/>
+      <c r="L23" s="20"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
@@ -1279,6 +1279,16 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="A10:L11"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="C6:F7"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="A4:L4"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
     <mergeCell ref="J23:L23"/>
     <mergeCell ref="I18:K18"/>
     <mergeCell ref="I13:K13"/>
@@ -1293,16 +1303,6 @@
     <mergeCell ref="E18:G18"/>
     <mergeCell ref="A23:D23"/>
     <mergeCell ref="E23:I23"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="A10:L11"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="C6:F7"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="A4:L4"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
